--- a/data/395_D_label_case.xlsx
+++ b/data/395_D_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,6 +1230,790 @@
         <v>0.001801626187129834</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.001802532859946833</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.0018282965939973</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.001865012980929548</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.0489</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.00184906585404566</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.0629</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.001845078425974696</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.0768</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.001865829072989522</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.0908</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.001915514644882035</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.1047</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.00198168030166272</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.1185</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.001990670303409244</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.1324</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.002012056407407638</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.1462</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.002059339390644802</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.002140790572804143</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.1738</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.002244055465884433</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.1874</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.00227864793713695</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.002328721786148297</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.2147</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.002410141844665811</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.2283</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.002533891325966238</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.2419</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.002682128425039069</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.2552</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.002728617807008043</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.2685</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.002794141134347611</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.2818</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.002895523392843297</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.2952</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.003047602980559171</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.3085</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.00323148995017272</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.3215</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.003283579991329406</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.3344</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.003364352930049214</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.3474</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.003494631288155167</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.3603</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.003692608691409358</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.3733</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.003931593277500554</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.3859</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.003997664918209723</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.3984</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.004095066944737632</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.4109</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.0042478744967048</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.4235</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.00448181195262365</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.004766367164597386</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.4481</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.004849365996688874</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.4602</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.004971147654012307</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.4722</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.005161422634718495</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.4843</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.005453549885504156</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.4964</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.005811559547442792</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.5079</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.005910750314668561</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.5195</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.006057674172434425</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.00629027548494344</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1.5426</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.006647319624455407</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1.5541</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.007078662442354612</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1.5651</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.007207339138146633</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1.5761</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.007383249532123664</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1.5871</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.007658517901422448</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1.5981</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.008083909455739439</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1.6091</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.008598325255875653</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1.6195</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.008750161846458035</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.008975062664366228</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1.6404</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.009327269640167923</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1.6508</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.009862756957769645</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1.6612</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.01050430028733692</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1.6711</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.01072958707984919</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1.6809</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.0110169316538401</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1.6907</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.01146437630876315</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1.7006</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.01215030252013888</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1.7104</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.01296239490919852</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1.7196</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.01329163919800298</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1.7289</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.01369101522131545</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1.7381</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.01428635710989641</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1.7473</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.01517424138376137</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1.7565</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.01620089887002401</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1.7652</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.01667247534154711</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1.7738</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.01723039257035581</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1.7825</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.01804571093196616</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1.7911</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.01925237386051968</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1.7997</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.02065578193831316</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1.8078</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.02141627481379405</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1.8158</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.02228910424993597</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1.8239</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.02353370334176819</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1.8319</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.02534504212882092</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.02746028774787558</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1.8474</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.02878522647457011</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1.8549</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.03024074969255608</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1.8624</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.03227216590643268</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1.8698</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.03523825216698486</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1.8773</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.03884618595554898</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1.8842</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.04139960414577489</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1.8911</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.04412323265093669</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.04775328308148816</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.05292560927697264</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1.9119</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.05927159321312344</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1.9182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.06407852405172854</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1.9246</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.06890045158576413</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.07521474014537857</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1.9374</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.08413662845987532</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.9438</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.09465587364450032</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.9496</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.1021291131840415</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1.9555</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.1078536125076936</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1.9614</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.114466547505444</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1.9672</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.1239566101235963</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.9731</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.1295170709046704</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1.9785</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.1346196663452628</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1.9839</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.1266211745590387</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.9892</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.1441629770830353</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1.9946</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.1905968077194616</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.210404620182554</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
